--- a/PCV x Siscer/Naive Bayes.xlsx
+++ b/PCV x Siscer/Naive Bayes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="53">
   <si>
     <t>No.</t>
   </si>
@@ -179,6 +179,21 @@
   <si>
     <t>(Value-vValue)^2</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +207,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -292,6 +307,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="OCR A Extended"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -386,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -644,24 +673,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +686,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,6 +813,201 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83342</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85691</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4655342" y="19609595"/>
+          <a:ext cx="2371693" cy="892968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>631032</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32610</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4155282" y="20955000"/>
+          <a:ext cx="4926078" cy="1012031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1059656</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>154779</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1143363</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5631656" y="16728279"/>
+          <a:ext cx="7775145" cy="988219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -978,32 +1211,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:T5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="12.75" x14ac:dyDescent="0.2">
@@ -1011,13 +1260,13 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="74"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
@@ -1029,6 +1278,9 @@
       <c r="F3" s="75"/>
       <c r="G3" s="15"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="102" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:42" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1195,15 +1447,15 @@
         <f t="shared" ref="O5:O36" si="6">1/SQRT(2*3.14*$D$410)*EXP(-(($D5-$D$409)^2)/($D$410^2))</f>
         <v>9.3075846267348314E-2</v>
       </c>
-      <c r="Q5" s="97">
+      <c r="Q5" s="91">
         <f>$G5*$J5*$M5</f>
         <v>29.105006729877189</v>
       </c>
-      <c r="R5" s="97">
+      <c r="R5" s="91">
         <f>$H5*$K5*$N5</f>
         <v>1.4794746626834413E-104</v>
       </c>
-      <c r="S5" s="97">
+      <c r="S5" s="91">
         <f>$I5*$L5*$O5</f>
         <v>7.822540749550511E-8</v>
       </c>
@@ -1262,15 +1514,15 @@
         <v>0.43338173810187347</v>
       </c>
       <c r="AL5" s="19"/>
-      <c r="AM5" s="3">
+      <c r="AM5" s="104">
         <f>AC5*AF5*AI5</f>
         <v>3.0759880334347417E-138</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="104">
         <f t="shared" ref="AN5:AO5" si="7">AD5*AG5*AJ5</f>
         <v>4.419837242082047E-28</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="104">
         <f t="shared" si="7"/>
         <v>3.9459308847171283E-2</v>
       </c>
@@ -1332,15 +1584,15 @@
         <f>1/SQRT(2*3.14*$D$410)*EXP(-(($D6-$D$409)^2)/($D$410^2))</f>
         <v>0.22439266306976324</v>
       </c>
-      <c r="Q6" s="97">
+      <c r="Q6" s="91">
         <f>$G6*$J6*$M6</f>
         <v>3.3270356018926535E-2</v>
       </c>
-      <c r="R6" s="97">
+      <c r="R6" s="91">
         <f>$H6*$K6*$N6</f>
         <v>3.5252501843275442E-101</v>
       </c>
-      <c r="S6" s="97">
+      <c r="S6" s="91">
         <f>$I6*$L6*$O6</f>
         <v>3.0068720698119685E-9</v>
       </c>
@@ -1397,15 +1649,15 @@
         <v>0.91307736770517423</v>
       </c>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="3">
+      <c r="AM6" s="104">
         <f t="shared" ref="AM6:AM20" si="17">AC6*AF6*AI6</f>
         <v>3.3809880047306271E-126</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="104">
         <f t="shared" ref="AN6:AN20" si="18">AD6*AG6*AJ6</f>
         <v>2.9323146771317656E-21</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="104">
         <f t="shared" ref="AO6:AO20" si="19">AE6*AH6*AK6</f>
         <v>7.1464839743201461E-2</v>
       </c>
@@ -1467,15 +1719,15 @@
         <f t="shared" si="6"/>
         <v>8.1288866870836401E-3</v>
       </c>
-      <c r="Q7" s="97">
+      <c r="Q7" s="91">
         <f t="shared" ref="Q7:Q18" si="22">$G7*$J7*$M7</f>
         <v>8.815310222233391</v>
       </c>
-      <c r="R7" s="97">
+      <c r="R7" s="91">
         <f t="shared" ref="R7:R18" si="23">$H7*$K7*$N7</f>
         <v>2.9597487925135028E-106</v>
       </c>
-      <c r="S7" s="97">
+      <c r="S7" s="91">
         <f t="shared" ref="S7:S18" si="24">$I7*$L7*$O7</f>
         <v>2.8035615183746483E-8</v>
       </c>
@@ -1532,15 +1784,15 @@
         <v>0.42416777099472347</v>
       </c>
       <c r="AL7" s="19"/>
-      <c r="AM7" s="3">
+      <c r="AM7" s="104">
         <f t="shared" si="17"/>
         <v>1.5464635648222106E-126</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="104">
         <f t="shared" si="18"/>
         <v>1.3870439279981248E-18</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="104">
         <f t="shared" si="19"/>
         <v>1.1826667986666249E-2</v>
       </c>
@@ -1602,15 +1854,15 @@
         <f t="shared" si="6"/>
         <v>9.4650143382669874E-2</v>
       </c>
-      <c r="Q8" s="97">
+      <c r="Q8" s="91">
         <f t="shared" si="22"/>
         <v>11.899748958882803</v>
       </c>
-      <c r="R8" s="97">
+      <c r="R8" s="91">
         <f t="shared" si="23"/>
         <v>7.8498344408240414E-110</v>
       </c>
-      <c r="S8" s="97">
+      <c r="S8" s="91">
         <f t="shared" si="24"/>
         <v>4.5356711521036506E-8</v>
       </c>
@@ -1667,15 +1919,15 @@
         <v>1.3218031433390549</v>
       </c>
       <c r="AL8" s="19"/>
-      <c r="AM8" s="3">
+      <c r="AM8" s="104">
         <f t="shared" si="17"/>
         <v>1.3784337969622479E-149</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="104">
         <f t="shared" si="18"/>
         <v>8.1898759159445573E-21</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="104">
         <f t="shared" si="19"/>
         <v>1.5597666327164964E-3</v>
       </c>
@@ -1737,15 +1989,15 @@
         <f t="shared" si="6"/>
         <v>1.4597037812753822E-3</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="91">
         <f t="shared" si="22"/>
         <v>0.13817255530900804</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="91">
         <f t="shared" si="23"/>
         <v>5.0490289828597184E-104</v>
       </c>
-      <c r="S9" s="97">
+      <c r="S9" s="91">
         <f t="shared" si="24"/>
         <v>2.6580741919569575E-8</v>
       </c>
@@ -1802,15 +2054,15 @@
         <v>0.47504684850904993</v>
       </c>
       <c r="AL9" s="19"/>
-      <c r="AM9" s="3">
+      <c r="AM9" s="104">
         <f t="shared" si="17"/>
         <v>6.0977761907695379E-117</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="104">
         <f t="shared" si="18"/>
         <v>4.649563231724282E-22</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="104">
         <f t="shared" si="19"/>
         <v>7.0599917009566762E-2</v>
       </c>
@@ -1872,15 +2124,15 @@
         <f t="shared" si="6"/>
         <v>9.3800165648122685E-2</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="91">
         <f t="shared" si="22"/>
         <v>6.5022928842810677</v>
       </c>
-      <c r="R10" s="97">
+      <c r="R10" s="91">
         <f t="shared" si="23"/>
         <v>6.8989555343111864E-116</v>
       </c>
-      <c r="S10" s="97">
+      <c r="S10" s="91">
         <f t="shared" si="24"/>
         <v>1.6142086102440197E-9</v>
       </c>
@@ -1937,15 +2189,15 @@
         <v>3.5872417103458079E-2</v>
       </c>
       <c r="AL10" s="19"/>
-      <c r="AM10" s="3">
+      <c r="AM10" s="104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="104">
         <f t="shared" si="18"/>
         <v>19.756985388255604</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="104">
         <f t="shared" si="19"/>
         <v>4.4070144434093539E-19</v>
       </c>
@@ -2007,15 +2259,15 @@
         <f t="shared" si="6"/>
         <v>3.5263223880303354E-3</v>
       </c>
-      <c r="Q11" s="97">
+      <c r="Q11" s="91">
         <f t="shared" si="22"/>
         <v>11.257988058236807</v>
       </c>
-      <c r="R11" s="97">
+      <c r="R11" s="91">
         <f t="shared" si="23"/>
         <v>2.1025570019199787E-115</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="91">
         <f t="shared" si="24"/>
         <v>7.9411183352883877E-10</v>
       </c>
@@ -2072,15 +2324,15 @@
         <v>0.33749958640905353</v>
       </c>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="3">
+      <c r="AM11" s="104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="104">
         <f t="shared" si="18"/>
         <v>9.9869827143203924</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="104">
         <f t="shared" si="19"/>
         <v>2.966732837006459E-18</v>
       </c>
@@ -2142,15 +2394,15 @@
         <f t="shared" si="6"/>
         <v>2.7954297751803081E-2</v>
       </c>
-      <c r="Q12" s="97">
+      <c r="Q12" s="91">
         <f t="shared" si="22"/>
         <v>6.6280013691703488</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="91">
         <f t="shared" si="23"/>
         <v>3.629916635590335E-102</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="91">
         <f t="shared" si="24"/>
         <v>3.4793062358238396E-7</v>
       </c>
@@ -2207,15 +2459,15 @@
         <v>4.0523304888249671E-2</v>
       </c>
       <c r="AL12" s="19"/>
-      <c r="AM12" s="3">
+      <c r="AM12" s="104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="104">
         <f t="shared" si="18"/>
         <v>13.210985611773948</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="104">
         <f t="shared" si="19"/>
         <v>6.5623175939534698E-21</v>
       </c>
@@ -2277,15 +2529,15 @@
         <f t="shared" si="6"/>
         <v>5.5227384233682765E-2</v>
       </c>
-      <c r="Q13" s="97">
+      <c r="Q13" s="91">
         <f t="shared" si="22"/>
         <v>41.353980307651291</v>
       </c>
-      <c r="R13" s="97">
+      <c r="R13" s="91">
         <f t="shared" si="23"/>
         <v>4.4843644377542994E-109</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="91">
         <f t="shared" si="24"/>
         <v>9.6278449904567532E-9</v>
       </c>
@@ -2342,15 +2594,15 @@
         <v>4.1344009320289532E-2</v>
       </c>
       <c r="AL13" s="19"/>
-      <c r="AM13" s="3">
+      <c r="AM13" s="104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN13" s="104">
         <f t="shared" si="18"/>
         <v>13.523566875587672</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="104">
         <f t="shared" si="19"/>
         <v>5.6480866285058156E-21</v>
       </c>
@@ -2393,7 +2645,7 @@
         <v>2.9899989387742933</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="2"/>
+        <f>1/SQRT(2*3.14*$D$254)*EXP(-(($C14-$D$253)^2)/($D$254^2))</f>
         <v>2.3222523080559448E-21</v>
       </c>
       <c r="L14" s="22">
@@ -2412,15 +2664,15 @@
         <f t="shared" si="6"/>
         <v>2.9275225076850896E-2</v>
       </c>
-      <c r="Q14" s="97">
+      <c r="Q14" s="91">
         <f t="shared" si="22"/>
         <v>16.527111611345568</v>
       </c>
-      <c r="R14" s="97">
+      <c r="R14" s="91">
         <f t="shared" si="23"/>
         <v>5.1667052129186756E-114</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="91">
         <f t="shared" si="24"/>
         <v>5.7501268703858291E-9</v>
       </c>
@@ -2477,15 +2729,15 @@
         <v>0.49021683001145833</v>
       </c>
       <c r="AL14" s="19"/>
-      <c r="AM14" s="3">
+      <c r="AM14" s="104">
         <f t="shared" si="17"/>
         <v>0.10421364873297433</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN14" s="104">
         <f t="shared" si="18"/>
         <v>2.3651115208158124E-92</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="104">
         <f t="shared" si="19"/>
         <v>2.1035095877944064E-5</v>
       </c>
@@ -2547,15 +2799,15 @@
         <f t="shared" si="6"/>
         <v>1.2419709804655536E-3</v>
       </c>
-      <c r="Q15" s="97">
+      <c r="Q15" s="91">
         <f t="shared" si="22"/>
         <v>2.2172430787290973</v>
       </c>
-      <c r="R15" s="97">
+      <c r="R15" s="91">
         <f t="shared" si="23"/>
         <v>1.8140006625007348E-114</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="91">
         <f t="shared" si="24"/>
         <v>2.0402435344307253E-9</v>
       </c>
@@ -2612,15 +2864,15 @@
         <v>4.8502561105998362E-2</v>
       </c>
       <c r="AL15" s="19"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="104">
         <f t="shared" si="17"/>
         <v>30.668231571434763</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AN15" s="104">
         <f t="shared" si="18"/>
         <v>1.3529879217027698E-111</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AO15" s="104">
         <f t="shared" si="19"/>
         <v>8.8024645920789508E-9</v>
       </c>
@@ -2682,15 +2934,15 @@
         <f t="shared" si="6"/>
         <v>0.6327824488271776</v>
       </c>
-      <c r="Q16" s="97">
+      <c r="Q16" s="91">
         <f t="shared" si="22"/>
         <v>2.5004501814853981E-4</v>
       </c>
-      <c r="R16" s="97">
+      <c r="R16" s="91">
         <f t="shared" si="23"/>
         <v>1.2359814571711459E-121</v>
       </c>
-      <c r="S16" s="97">
+      <c r="S16" s="91">
         <f t="shared" si="24"/>
         <v>6.4009591698149336E-12</v>
       </c>
@@ -2747,15 +2999,15 @@
         <v>8.3279477427946474E-3</v>
       </c>
       <c r="AL16" s="19"/>
-      <c r="AM16" s="3">
+      <c r="AM16" s="104">
         <f t="shared" si="17"/>
         <v>18.306831670359017</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AN16" s="104">
         <f t="shared" si="18"/>
         <v>1.7321853499315209E-109</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO16" s="104">
         <f t="shared" si="19"/>
         <v>9.4923891213845923E-9</v>
       </c>
@@ -2817,15 +3069,15 @@
         <f t="shared" si="6"/>
         <v>0.22875542910494323</v>
       </c>
-      <c r="Q17" s="97">
+      <c r="Q17" s="91">
         <f t="shared" si="22"/>
         <v>8.9372501599397474</v>
       </c>
-      <c r="R17" s="97">
+      <c r="R17" s="91">
         <f t="shared" si="23"/>
         <v>1.5261984405086807E-109</v>
       </c>
-      <c r="S17" s="97">
+      <c r="S17" s="91">
         <f t="shared" si="24"/>
         <v>1.6532257336720787E-8</v>
       </c>
@@ -2882,15 +3134,15 @@
         <v>0.1430219688584651</v>
       </c>
       <c r="AL17" s="19"/>
-      <c r="AM17" s="3">
+      <c r="AM17" s="104">
         <f t="shared" si="17"/>
         <v>18.941818991284979</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN17" s="104">
         <f t="shared" si="18"/>
         <v>4.9149776066137568E-110</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17" s="104">
         <f t="shared" si="19"/>
         <v>8.6138825285492397E-9</v>
       </c>
@@ -2952,15 +3204,15 @@
         <f t="shared" si="6"/>
         <v>3.0936069196464373E-2</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="92">
         <f t="shared" si="22"/>
         <v>39.260842699883469</v>
       </c>
-      <c r="R18" s="98">
+      <c r="R18" s="92">
         <f t="shared" si="23"/>
         <v>8.8312768624512699E-109</v>
       </c>
-      <c r="S18" s="98">
+      <c r="S18" s="92">
         <f t="shared" si="24"/>
         <v>8.2139231173526895E-9</v>
       </c>
@@ -3016,15 +3268,15 @@
         <f t="shared" si="16"/>
         <v>0.25795334553337179</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM18" s="104">
         <f t="shared" si="17"/>
         <v>2.785970586237235</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN18" s="104">
         <f t="shared" si="18"/>
         <v>1.4440638262276535E-101</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO18" s="104">
         <f t="shared" si="19"/>
         <v>1.2959450433319901E-6</v>
       </c>
@@ -3086,15 +3338,15 @@
         <f t="shared" si="6"/>
         <v>1.317523943600842E-2</v>
       </c>
-      <c r="Q19" s="99">
+      <c r="Q19" s="93">
         <f t="shared" ref="Q19:Q50" si="27">$G19*$J19*$M19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="99">
+      <c r="R19" s="93">
         <f t="shared" ref="R19:R50" si="28">$H19*$K19*$N19</f>
         <v>5.1075722977936424</v>
       </c>
-      <c r="S19" s="99">
+      <c r="S19" s="93">
         <f t="shared" ref="S19:S50" si="29">$I19*$L19*$O19</f>
         <v>1.4766217595163541E-22</v>
       </c>
@@ -3150,15 +3402,15 @@
         <f t="shared" si="16"/>
         <v>1.0089279009721548</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM19" s="104">
         <f t="shared" si="17"/>
         <v>3.0956084557859743E-7</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN19" s="104">
         <f t="shared" si="18"/>
         <v>2.3198468197825067E-82</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AO19" s="104">
         <f t="shared" si="19"/>
         <v>2.7963734807827062E-3</v>
       </c>
@@ -3220,15 +3472,15 @@
         <f t="shared" si="6"/>
         <v>0.28622121495418046</v>
       </c>
-      <c r="Q20" s="99">
+      <c r="Q20" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R20" s="99">
+      <c r="R20" s="93">
         <f t="shared" si="28"/>
         <v>8.809649530340026E-2</v>
       </c>
-      <c r="S20" s="99">
+      <c r="S20" s="93">
         <f t="shared" si="29"/>
         <v>1.7722554166911457E-14</v>
       </c>
@@ -3285,15 +3537,15 @@
         <v>5.5024799432356969E-2</v>
       </c>
       <c r="AL20" s="19"/>
-      <c r="AM20" s="3">
+      <c r="AM20" s="104">
         <f t="shared" si="17"/>
         <v>0.45894136779928874</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN20" s="104">
         <f t="shared" si="18"/>
         <v>6.1033955259954234E-99</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AO20" s="104">
         <f t="shared" si="19"/>
         <v>3.19873814223522E-8</v>
       </c>
@@ -3355,15 +3607,15 @@
         <f t="shared" si="6"/>
         <v>0.30829737412732022</v>
       </c>
-      <c r="Q21" s="99">
+      <c r="Q21" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R21" s="99">
+      <c r="R21" s="93">
         <f t="shared" si="28"/>
         <v>1.3719379595929679</v>
       </c>
-      <c r="S21" s="99">
+      <c r="S21" s="93">
         <f t="shared" si="29"/>
         <v>9.6173728988666785E-17</v>
       </c>
@@ -3439,15 +3691,15 @@
         <f t="shared" si="6"/>
         <v>0.41388293157474548</v>
       </c>
-      <c r="Q22" s="99">
+      <c r="Q22" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R22" s="99">
+      <c r="R22" s="93">
         <f t="shared" si="28"/>
         <v>0.31765641340111234</v>
       </c>
-      <c r="S22" s="99">
+      <c r="S22" s="93">
         <f t="shared" si="29"/>
         <v>1.9761540935523142E-16</v>
       </c>
@@ -3509,15 +3761,15 @@
         <f t="shared" si="6"/>
         <v>4.83195107051903E-4</v>
       </c>
-      <c r="Q23" s="99">
+      <c r="Q23" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R23" s="99">
+      <c r="R23" s="93">
         <f t="shared" si="28"/>
         <v>2.2018742633992606E-2</v>
       </c>
-      <c r="S23" s="99">
+      <c r="S23" s="93">
         <f t="shared" si="29"/>
         <v>1.1912137195816369E-26</v>
       </c>
@@ -3579,15 +3831,15 @@
         <f t="shared" si="6"/>
         <v>1.1639031476877223E-2</v>
       </c>
-      <c r="Q24" s="99">
+      <c r="Q24" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R24" s="99">
+      <c r="R24" s="93">
         <f t="shared" si="28"/>
         <v>1.0288996385186264</v>
       </c>
-      <c r="S24" s="99">
+      <c r="S24" s="93">
         <f t="shared" si="29"/>
         <v>2.8651984324513548E-24</v>
       </c>
@@ -3649,15 +3901,15 @@
         <f t="shared" si="6"/>
         <v>1.0486793318722636E-2</v>
       </c>
-      <c r="Q25" s="99">
+      <c r="Q25" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R25" s="99">
+      <c r="R25" s="93">
         <f t="shared" si="28"/>
         <v>6.1295832702720761</v>
       </c>
-      <c r="S25" s="99">
+      <c r="S25" s="93">
         <f t="shared" si="29"/>
         <v>1.3200422906688675E-19</v>
       </c>
@@ -3719,15 +3971,15 @@
         <f t="shared" si="6"/>
         <v>8.1378674024888183E-3</v>
       </c>
-      <c r="Q26" s="99">
+      <c r="Q26" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R26" s="99">
+      <c r="R26" s="93">
         <f t="shared" si="28"/>
         <v>9.7404020022815381</v>
       </c>
-      <c r="S26" s="99">
+      <c r="S26" s="93">
         <f t="shared" si="29"/>
         <v>1.6474695462929516E-20</v>
       </c>
@@ -3789,15 +4041,15 @@
         <f t="shared" si="6"/>
         <v>0.29927174201897483</v>
       </c>
-      <c r="Q27" s="99">
+      <c r="Q27" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R27" s="99">
+      <c r="R27" s="93">
         <f t="shared" si="28"/>
         <v>2.3986080135468639</v>
       </c>
-      <c r="S27" s="99">
+      <c r="S27" s="93">
         <f t="shared" si="29"/>
         <v>3.5807654511981135E-14</v>
       </c>
@@ -3859,15 +4111,15 @@
         <f t="shared" si="6"/>
         <v>1.3290497035569771E-2</v>
       </c>
-      <c r="Q28" s="99">
+      <c r="Q28" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R28" s="99">
+      <c r="R28" s="93">
         <f t="shared" si="28"/>
         <v>5.0989965708796277</v>
       </c>
-      <c r="S28" s="99">
+      <c r="S28" s="93">
         <f t="shared" si="29"/>
         <v>1.3994863669168544E-22</v>
       </c>
@@ -3929,15 +4181,15 @@
         <f t="shared" si="6"/>
         <v>5.7916734987402407E-3</v>
       </c>
-      <c r="Q29" s="99">
+      <c r="Q29" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R29" s="99">
+      <c r="R29" s="93">
         <f t="shared" si="28"/>
         <v>0.72812164665661983</v>
       </c>
-      <c r="S29" s="99">
+      <c r="S29" s="93">
         <f t="shared" si="29"/>
         <v>2.10369622869686E-25</v>
       </c>
@@ -3999,15 +4251,15 @@
         <f t="shared" si="6"/>
         <v>2.6442238832820625E-2</v>
       </c>
-      <c r="Q30" s="99">
+      <c r="Q30" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R30" s="99">
+      <c r="R30" s="93">
         <f t="shared" si="28"/>
         <v>6.3699008579175933</v>
       </c>
-      <c r="S30" s="99">
+      <c r="S30" s="93">
         <f t="shared" si="29"/>
         <v>4.5754053676612846E-23</v>
       </c>
@@ -4069,15 +4321,15 @@
         <f t="shared" si="6"/>
         <v>6.4424823778090043E-2</v>
       </c>
-      <c r="Q31" s="99">
+      <c r="Q31" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R31" s="99">
+      <c r="R31" s="93">
         <f t="shared" si="28"/>
         <v>5.6123195803115369</v>
       </c>
-      <c r="S31" s="99">
+      <c r="S31" s="93">
         <f t="shared" si="29"/>
         <v>4.206369291598595E-15</v>
       </c>
@@ -4139,15 +4391,15 @@
         <f t="shared" si="6"/>
         <v>0.24578682752262082</v>
       </c>
-      <c r="Q32" s="99">
+      <c r="Q32" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R32" s="99">
+      <c r="R32" s="93">
         <f t="shared" si="28"/>
         <v>3.4089607843042291</v>
       </c>
-      <c r="S32" s="99">
+      <c r="S32" s="93">
         <f t="shared" si="29"/>
         <v>1.9734392599915774E-14</v>
       </c>
@@ -4209,15 +4461,15 @@
         <f t="shared" si="6"/>
         <v>1.4717030073967293E-3</v>
       </c>
-      <c r="Q33" s="99">
+      <c r="Q33" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R33" s="99">
+      <c r="R33" s="93">
         <f t="shared" si="28"/>
         <v>2.5267214877874968</v>
       </c>
-      <c r="S33" s="99">
+      <c r="S33" s="93">
         <f t="shared" si="29"/>
         <v>1.0245060234585136E-19</v>
       </c>
@@ -4279,15 +4531,15 @@
         <f t="shared" si="6"/>
         <v>4.558472618159554E-3</v>
       </c>
-      <c r="Q34" s="99">
+      <c r="Q34" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R34" s="99">
+      <c r="R34" s="93">
         <f t="shared" si="28"/>
         <v>4.1541025499993864</v>
       </c>
-      <c r="S34" s="99">
+      <c r="S34" s="93">
         <f t="shared" si="29"/>
         <v>5.1532498911513498E-23</v>
       </c>
@@ -4349,15 +4601,15 @@
         <f t="shared" si="6"/>
         <v>7.5079594066447167E-2</v>
       </c>
-      <c r="Q35" s="99">
+      <c r="Q35" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R35" s="99">
+      <c r="R35" s="93">
         <f t="shared" si="28"/>
         <v>13.647457950094557</v>
       </c>
-      <c r="S35" s="99">
+      <c r="S35" s="93">
         <f t="shared" si="29"/>
         <v>9.9141790445024533E-17</v>
       </c>
@@ -4419,15 +4671,15 @@
         <f t="shared" si="6"/>
         <v>0.70740755220186746</v>
       </c>
-      <c r="Q36" s="99">
+      <c r="Q36" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R36" s="99">
+      <c r="R36" s="93">
         <f t="shared" si="28"/>
         <v>0.41763806946547777</v>
       </c>
-      <c r="S36" s="99">
+      <c r="S36" s="93">
         <f t="shared" si="29"/>
         <v>2.9452082377945269E-17</v>
       </c>
@@ -4489,15 +4741,15 @@
         <f t="shared" ref="O37:O68" si="38">1/SQRT(2*3.14*$D$410)*EXP(-(($D37-$D$409)^2)/($D$410^2))</f>
         <v>0.2298020804669296</v>
       </c>
-      <c r="Q37" s="99">
+      <c r="Q37" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R37" s="99">
+      <c r="R37" s="93">
         <f t="shared" si="28"/>
         <v>9.9158648244863503</v>
       </c>
-      <c r="S37" s="99">
+      <c r="S37" s="93">
         <f t="shared" si="29"/>
         <v>1.9858427786534942E-17</v>
       </c>
@@ -4559,15 +4811,15 @@
         <f t="shared" si="38"/>
         <v>0.47118711218695369</v>
       </c>
-      <c r="Q38" s="99">
+      <c r="Q38" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R38" s="99">
+      <c r="R38" s="93">
         <f t="shared" si="28"/>
         <v>2.2180423813963759</v>
       </c>
-      <c r="S38" s="99">
+      <c r="S38" s="93">
         <f t="shared" si="29"/>
         <v>8.8424433836324654E-21</v>
       </c>
@@ -4629,15 +4881,15 @@
         <f t="shared" si="38"/>
         <v>1.2382881046384417</v>
       </c>
-      <c r="Q39" s="99">
+      <c r="Q39" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R39" s="99">
+      <c r="R39" s="93">
         <f t="shared" si="28"/>
         <v>2.503783878821534E-2</v>
       </c>
-      <c r="S39" s="99">
+      <c r="S39" s="93">
         <f t="shared" si="29"/>
         <v>1.3253758656152917E-14</v>
       </c>
@@ -4699,15 +4951,15 @@
         <f t="shared" si="38"/>
         <v>2.0060148203876919E-2</v>
       </c>
-      <c r="Q40" s="99">
+      <c r="Q40" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R40" s="99">
+      <c r="R40" s="93">
         <f t="shared" si="28"/>
         <v>1.8079223569259395</v>
       </c>
-      <c r="S40" s="99">
+      <c r="S40" s="93">
         <f t="shared" si="29"/>
         <v>1.0737873376110253E-18</v>
       </c>
@@ -4769,15 +5021,15 @@
         <f t="shared" si="38"/>
         <v>1.5989114992128028E-3</v>
       </c>
-      <c r="Q41" s="99">
+      <c r="Q41" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R41" s="99">
+      <c r="R41" s="93">
         <f t="shared" si="28"/>
         <v>0.24104691961088082</v>
       </c>
-      <c r="S41" s="99">
+      <c r="S41" s="93">
         <f t="shared" si="29"/>
         <v>3.3789642764234287E-24</v>
       </c>
@@ -4839,15 +5091,15 @@
         <f t="shared" si="38"/>
         <v>4.9162946568985268E-2</v>
       </c>
-      <c r="Q42" s="99">
+      <c r="Q42" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R42" s="99">
+      <c r="R42" s="93">
         <f t="shared" si="28"/>
         <v>9.5019698083657271</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="93">
         <f t="shared" si="29"/>
         <v>1.7949235618595144E-18</v>
       </c>
@@ -4909,15 +5161,15 @@
         <f t="shared" si="38"/>
         <v>1.3841170046376525E-3</v>
       </c>
-      <c r="Q43" s="99">
+      <c r="Q43" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R43" s="99">
+      <c r="R43" s="93">
         <f t="shared" si="28"/>
         <v>0.10864286487618444</v>
       </c>
-      <c r="S43" s="99">
+      <c r="S43" s="93">
         <f t="shared" si="29"/>
         <v>2.9510851571256341E-26</v>
       </c>
@@ -4979,15 +5231,15 @@
         <f t="shared" si="38"/>
         <v>0.81128899928442355</v>
       </c>
-      <c r="Q44" s="99">
+      <c r="Q44" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R44" s="99">
+      <c r="R44" s="93">
         <f t="shared" si="28"/>
         <v>2.5332518680553955E-2</v>
       </c>
-      <c r="S44" s="99">
+      <c r="S44" s="93">
         <f t="shared" si="29"/>
         <v>1.4329995563394422E-14</v>
       </c>
@@ -5049,15 +5301,15 @@
         <f t="shared" si="38"/>
         <v>0.82074594850118632</v>
       </c>
-      <c r="Q45" s="99">
+      <c r="Q45" s="93">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R45" s="99">
+      <c r="R45" s="93">
         <f t="shared" si="28"/>
         <v>0.14557172136055396</v>
       </c>
-      <c r="S45" s="99">
+      <c r="S45" s="93">
         <f t="shared" si="29"/>
         <v>1.0489312179797593E-13</v>
       </c>
@@ -5119,15 +5371,15 @@
         <f t="shared" si="38"/>
         <v>6.6307633987096798E-2</v>
       </c>
-      <c r="Q46" s="100">
+      <c r="Q46" s="94">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R46" s="100">
+      <c r="R46" s="94">
         <f t="shared" si="28"/>
         <v>8.2945435202549316</v>
       </c>
-      <c r="S46" s="100">
+      <c r="S46" s="94">
         <f t="shared" si="29"/>
         <v>1.3704488560359908E-21</v>
       </c>
@@ -5189,15 +5441,15 @@
         <f t="shared" si="38"/>
         <v>2.0622064753053944</v>
       </c>
-      <c r="Q47" s="99">
+      <c r="Q47" s="93">
         <f t="shared" si="27"/>
         <v>1.6862066859883027E-57</v>
       </c>
-      <c r="R47" s="99">
+      <c r="R47" s="93">
         <f t="shared" si="28"/>
         <v>1.7838171563710322E-50</v>
       </c>
-      <c r="S47" s="99">
+      <c r="S47" s="93">
         <f t="shared" si="29"/>
         <v>9.5225779092535952</v>
       </c>
@@ -5259,15 +5511,15 @@
         <f t="shared" si="38"/>
         <v>0.69569528608146025</v>
       </c>
-      <c r="Q48" s="99">
+      <c r="Q48" s="93">
         <f t="shared" si="27"/>
         <v>9.1870080144553428E-35</v>
       </c>
-      <c r="R48" s="99">
+      <c r="R48" s="93">
         <f t="shared" si="28"/>
         <v>1.150177661641275E-63</v>
       </c>
-      <c r="S48" s="99">
+      <c r="S48" s="93">
         <f t="shared" si="29"/>
         <v>1.7114250054518982</v>
       </c>
@@ -5329,15 +5581,15 @@
         <f t="shared" si="38"/>
         <v>1.4825552335564152</v>
       </c>
-      <c r="Q49" s="99">
+      <c r="Q49" s="93">
         <f t="shared" si="27"/>
         <v>1.0570751491116246E-58</v>
       </c>
-      <c r="R49" s="99">
+      <c r="R49" s="93">
         <f t="shared" si="28"/>
         <v>1.3055226367751277E-58</v>
       </c>
-      <c r="S49" s="99">
+      <c r="S49" s="93">
         <f t="shared" si="29"/>
         <v>4.2207345790415109</v>
       </c>
@@ -5399,15 +5651,15 @@
         <f t="shared" si="38"/>
         <v>2.0145605807028368</v>
       </c>
-      <c r="Q50" s="99">
+      <c r="Q50" s="93">
         <f t="shared" si="27"/>
         <v>1.0721031764845907E-44</v>
       </c>
-      <c r="R50" s="99">
+      <c r="R50" s="93">
         <f t="shared" si="28"/>
         <v>1.9786316227638711E-60</v>
       </c>
-      <c r="S50" s="99">
+      <c r="S50" s="93">
         <f t="shared" si="29"/>
         <v>4.0895672679572934</v>
       </c>
@@ -5469,15 +5721,15 @@
         <f t="shared" si="38"/>
         <v>0.36410796968339387</v>
       </c>
-      <c r="Q51" s="99">
+      <c r="Q51" s="93">
         <f t="shared" ref="Q51:Q84" si="39">$G51*$J51*$M51</f>
         <v>4.261606149380084E-64</v>
       </c>
-      <c r="R51" s="99">
+      <c r="R51" s="93">
         <f t="shared" ref="R51:R84" si="40">$H51*$K51*$N51</f>
         <v>1.8637434945087415E-61</v>
       </c>
-      <c r="S51" s="99">
+      <c r="S51" s="93">
         <f t="shared" ref="S51:S84" si="41">$I51*$L51*$O51</f>
         <v>0.84903305069708701</v>
       </c>
@@ -5539,15 +5791,15 @@
         <f t="shared" si="38"/>
         <v>1.609035016264547</v>
       </c>
-      <c r="Q52" s="99">
+      <c r="Q52" s="93">
         <f t="shared" si="39"/>
         <v>1.4762689047523076E-76</v>
       </c>
-      <c r="R52" s="99">
+      <c r="R52" s="93">
         <f t="shared" si="40"/>
         <v>1.1816505896707931E-44</v>
       </c>
-      <c r="S52" s="99">
+      <c r="S52" s="93">
         <f t="shared" si="41"/>
         <v>5.9916169546777613</v>
       </c>
@@ -5609,15 +5861,15 @@
         <f t="shared" si="38"/>
         <v>1.8576062409767313</v>
       </c>
-      <c r="Q53" s="99">
+      <c r="Q53" s="93">
         <f t="shared" si="39"/>
         <v>2.5813446331282209E-43</v>
       </c>
-      <c r="R53" s="99">
+      <c r="R53" s="93">
         <f t="shared" si="40"/>
         <v>5.604490963198697E-55</v>
       </c>
-      <c r="S53" s="99">
+      <c r="S53" s="93">
         <f t="shared" si="41"/>
         <v>6.6826414945010582</v>
       </c>
@@ -5679,15 +5931,15 @@
         <f t="shared" si="38"/>
         <v>2.1013905386094023</v>
       </c>
-      <c r="Q54" s="99">
+      <c r="Q54" s="93">
         <f t="shared" si="39"/>
         <v>1.5100908814374094E-73</v>
       </c>
-      <c r="R54" s="99">
+      <c r="R54" s="93">
         <f t="shared" si="40"/>
         <v>6.634343390608845E-50</v>
       </c>
-      <c r="S54" s="99">
+      <c r="S54" s="93">
         <f t="shared" si="41"/>
         <v>5.8929666318418903</v>
       </c>
@@ -5749,15 +6001,15 @@
         <f t="shared" si="38"/>
         <v>1.8185104311154818</v>
       </c>
-      <c r="Q55" s="99">
+      <c r="Q55" s="93">
         <f t="shared" si="39"/>
         <v>4.4349627814840163E-82</v>
       </c>
-      <c r="R55" s="99">
+      <c r="R55" s="93">
         <f t="shared" si="40"/>
         <v>2.2790755107609967E-39</v>
       </c>
-      <c r="S55" s="99">
+      <c r="S55" s="93">
         <f t="shared" si="41"/>
         <v>5.5570867828010648</v>
       </c>
@@ -5819,15 +6071,15 @@
         <f t="shared" si="38"/>
         <v>0.65705243560215054</v>
       </c>
-      <c r="Q56" s="99">
+      <c r="Q56" s="93">
         <f t="shared" si="39"/>
         <v>8.811159834037205E-62</v>
       </c>
-      <c r="R56" s="99">
+      <c r="R56" s="93">
         <f t="shared" si="40"/>
         <v>4.5248871942722079E-43</v>
       </c>
-      <c r="S56" s="99">
+      <c r="S56" s="93">
         <f t="shared" si="41"/>
         <v>2.296027229353057</v>
       </c>
@@ -5889,15 +6141,15 @@
         <f t="shared" si="38"/>
         <v>1.2213440883870637</v>
       </c>
-      <c r="Q57" s="99">
+      <c r="Q57" s="93">
         <f t="shared" si="39"/>
         <v>5.2255545414286225E-126</v>
       </c>
-      <c r="R57" s="99">
+      <c r="R57" s="93">
         <f t="shared" si="40"/>
         <v>2.1142314965274368E-45</v>
       </c>
-      <c r="S57" s="99">
+      <c r="S57" s="93">
         <f t="shared" si="41"/>
         <v>3.7313048224784207E-2</v>
       </c>
@@ -5959,15 +6211,15 @@
         <f t="shared" si="38"/>
         <v>1.7005760324372787</v>
       </c>
-      <c r="Q58" s="99">
+      <c r="Q58" s="93">
         <f t="shared" si="39"/>
         <v>1.8419233584341973E-48</v>
       </c>
-      <c r="R58" s="99">
+      <c r="R58" s="93">
         <f t="shared" si="40"/>
         <v>2.9852174762554366E-61</v>
       </c>
-      <c r="S58" s="99">
+      <c r="S58" s="93">
         <f t="shared" si="41"/>
         <v>4.5628466583070875</v>
       </c>
@@ -6029,15 +6281,15 @@
         <f t="shared" si="38"/>
         <v>1.6682837397771597</v>
       </c>
-      <c r="Q59" s="99">
+      <c r="Q59" s="93">
         <f t="shared" si="39"/>
         <v>1.7362463878655443E-93</v>
       </c>
-      <c r="R59" s="99">
+      <c r="R59" s="93">
         <f t="shared" si="40"/>
         <v>2.0701486130982089E-40</v>
       </c>
-      <c r="S59" s="99">
+      <c r="S59" s="93">
         <f t="shared" si="41"/>
         <v>1.7975355612221329</v>
       </c>
@@ -6099,15 +6351,15 @@
         <f t="shared" si="38"/>
         <v>1.0362505052856401</v>
       </c>
-      <c r="Q60" s="99">
+      <c r="Q60" s="93">
         <f t="shared" si="39"/>
         <v>1.0875456957890602E-131</v>
       </c>
-      <c r="R60" s="99">
+      <c r="R60" s="93">
         <f t="shared" si="40"/>
         <v>1.7846766132968795E-43</v>
       </c>
-      <c r="S60" s="99">
+      <c r="S60" s="93">
         <f t="shared" si="41"/>
         <v>1.9144098196716145E-2</v>
       </c>
@@ -6169,15 +6421,15 @@
         <f t="shared" si="38"/>
         <v>2.0700818476270699</v>
       </c>
-      <c r="Q61" s="99">
+      <c r="Q61" s="93">
         <f t="shared" si="39"/>
         <v>1.6805678292586273E-93</v>
       </c>
-      <c r="R61" s="99">
+      <c r="R61" s="93">
         <f t="shared" si="40"/>
         <v>2.1795466938220748E-37</v>
       </c>
-      <c r="S61" s="99">
+      <c r="S61" s="93">
         <f t="shared" si="41"/>
         <v>3.0183737809937803</v>
       </c>
@@ -6239,15 +6491,15 @@
         <f t="shared" si="38"/>
         <v>2.0763624365377447</v>
       </c>
-      <c r="Q62" s="99">
+      <c r="Q62" s="93">
         <f t="shared" si="39"/>
         <v>5.111104479986661E-87</v>
       </c>
-      <c r="R62" s="99">
+      <c r="R62" s="93">
         <f t="shared" si="40"/>
         <v>1.7597023127105576E-29</v>
       </c>
-      <c r="S62" s="99">
+      <c r="S62" s="93">
         <f t="shared" si="41"/>
         <v>1.0029947634357632</v>
       </c>
@@ -6309,15 +6561,15 @@
         <f t="shared" si="38"/>
         <v>0.170473491479391</v>
       </c>
-      <c r="Q63" s="99">
+      <c r="Q63" s="93">
         <f t="shared" si="39"/>
         <v>5.634381056154757E-114</v>
       </c>
-      <c r="R63" s="99">
+      <c r="R63" s="93">
         <f t="shared" si="40"/>
         <v>6.9072505318080397E-35</v>
       </c>
-      <c r="S63" s="99">
+      <c r="S63" s="93">
         <f t="shared" si="41"/>
         <v>0.17784673194880449</v>
       </c>
@@ -6379,15 +6631,15 @@
         <f t="shared" si="38"/>
         <v>0.35733631522418319</v>
       </c>
-      <c r="Q64" s="99">
+      <c r="Q64" s="93">
         <f t="shared" si="39"/>
         <v>1.0777290849718268E-81</v>
       </c>
-      <c r="R64" s="99">
+      <c r="R64" s="93">
         <f t="shared" si="40"/>
         <v>1.6864549807057304E-35</v>
       </c>
-      <c r="S64" s="99">
+      <c r="S64" s="93">
         <f t="shared" si="41"/>
         <v>1.0900858983975414</v>
       </c>
@@ -6449,15 +6701,15 @@
         <f t="shared" si="38"/>
         <v>1.8376227296795504</v>
       </c>
-      <c r="Q65" s="99">
+      <c r="Q65" s="93">
         <f t="shared" si="39"/>
         <v>1.7409727175758521E-112</v>
       </c>
-      <c r="R65" s="99">
+      <c r="R65" s="93">
         <f t="shared" si="40"/>
         <v>6.013129363063149E-31</v>
       </c>
-      <c r="S65" s="99">
+      <c r="S65" s="93">
         <f t="shared" si="41"/>
         <v>0.38192068282237784</v>
       </c>
@@ -6519,15 +6771,15 @@
         <f t="shared" si="38"/>
         <v>0.35618329174384916</v>
       </c>
-      <c r="Q66" s="99">
+      <c r="Q66" s="93">
         <f t="shared" si="39"/>
         <v>8.2426729438343519E-103</v>
       </c>
-      <c r="R66" s="99">
+      <c r="R66" s="93">
         <f t="shared" si="40"/>
         <v>1.5735190831834024E-31</v>
       </c>
-      <c r="S66" s="99">
+      <c r="S66" s="93">
         <f t="shared" si="41"/>
         <v>0.55468667087664181</v>
       </c>
@@ -6589,15 +6841,15 @@
         <f t="shared" si="38"/>
         <v>0.11466277066224628</v>
       </c>
-      <c r="Q67" s="99">
+      <c r="Q67" s="93">
         <f t="shared" si="39"/>
         <v>5.9135909404940071E-124</v>
       </c>
-      <c r="R67" s="99">
+      <c r="R67" s="93">
         <f t="shared" si="40"/>
         <v>8.716304749245556E-30</v>
       </c>
-      <c r="S67" s="99">
+      <c r="S67" s="93">
         <f t="shared" si="41"/>
         <v>6.3615301788300105E-2</v>
       </c>
@@ -6659,15 +6911,15 @@
         <f t="shared" si="38"/>
         <v>7.7939168136531692E-2</v>
       </c>
-      <c r="Q68" s="99">
+      <c r="Q68" s="93">
         <f t="shared" si="39"/>
         <v>2.3934541127653106E-139</v>
       </c>
-      <c r="R68" s="99">
+      <c r="R68" s="93">
         <f t="shared" si="40"/>
         <v>3.9756685892855844E-25</v>
       </c>
-      <c r="S68" s="99">
+      <c r="S68" s="93">
         <f t="shared" si="41"/>
         <v>1.1883261945453577E-2</v>
       </c>
@@ -6729,15 +6981,15 @@
         <f t="shared" ref="O69:O85" si="50">1/SQRT(2*3.14*$D$410)*EXP(-(($D69-$D$409)^2)/($D$410^2))</f>
         <v>1.7569818986150918</v>
       </c>
-      <c r="Q69" s="99">
+      <c r="Q69" s="93">
         <f t="shared" si="39"/>
         <v>1.6605455829510759E-11</v>
       </c>
-      <c r="R69" s="99">
+      <c r="R69" s="93">
         <f t="shared" si="40"/>
         <v>2.390711803769214E-85</v>
       </c>
-      <c r="S69" s="99">
+      <c r="S69" s="93">
         <f t="shared" si="41"/>
         <v>5.2846502775416209E-3</v>
       </c>
@@ -6799,15 +7051,15 @@
         <f t="shared" si="50"/>
         <v>0.17667211063108834</v>
       </c>
-      <c r="Q70" s="99">
+      <c r="Q70" s="93">
         <f t="shared" si="39"/>
         <v>3.4266327432765044E-121</v>
       </c>
-      <c r="R70" s="99">
+      <c r="R70" s="93">
         <f t="shared" si="40"/>
         <v>8.1332311605973193E-25</v>
       </c>
-      <c r="S70" s="99">
+      <c r="S70" s="93">
         <f t="shared" si="41"/>
         <v>6.5512483937520474E-2</v>
       </c>
@@ -6869,15 +7121,15 @@
         <f t="shared" si="50"/>
         <v>8.9945998831365663E-3</v>
       </c>
-      <c r="Q71" s="99">
+      <c r="Q71" s="93">
         <f t="shared" si="39"/>
         <v>6.3831223541380664E-136</v>
       </c>
-      <c r="R71" s="99">
+      <c r="R71" s="93">
         <f t="shared" si="40"/>
         <v>1.3477886326013433E-18</v>
       </c>
-      <c r="S71" s="99">
+      <c r="S71" s="93">
         <f t="shared" si="41"/>
         <v>4.3356724329541932E-5</v>
       </c>
@@ -6939,15 +7191,15 @@
         <f t="shared" si="50"/>
         <v>1.9144607785579727E-2</v>
       </c>
-      <c r="Q72" s="99">
+      <c r="Q72" s="93">
         <f t="shared" si="39"/>
         <v>4.9925103790181782E-9</v>
       </c>
-      <c r="R72" s="99">
+      <c r="R72" s="93">
         <f t="shared" si="40"/>
         <v>1.8278446447346298E-96</v>
       </c>
-      <c r="S72" s="99">
+      <c r="S72" s="93">
         <f t="shared" si="41"/>
         <v>1.4357347123244724E-4</v>
       </c>
@@ -7009,15 +7261,15 @@
         <f t="shared" si="50"/>
         <v>2.0273078069693193</v>
       </c>
-      <c r="Q73" s="99">
+      <c r="Q73" s="93">
         <f t="shared" si="39"/>
         <v>1.1466489867066663E-45</v>
       </c>
-      <c r="R73" s="99">
+      <c r="R73" s="93">
         <f t="shared" si="40"/>
         <v>3.0744597990498435E-54</v>
       </c>
-      <c r="S73" s="99">
+      <c r="S73" s="93">
         <f t="shared" si="41"/>
         <v>7.7060617051413969</v>
       </c>
@@ -7079,15 +7331,15 @@
         <f t="shared" si="50"/>
         <v>1.6016046531249886</v>
       </c>
-      <c r="Q74" s="99">
+      <c r="Q74" s="93">
         <f t="shared" si="39"/>
         <v>1.0540068576127239E-48</v>
       </c>
-      <c r="R74" s="99">
+      <c r="R74" s="93">
         <f t="shared" si="40"/>
         <v>3.6809909526135264E-57</v>
       </c>
-      <c r="S74" s="99">
+      <c r="S74" s="93">
         <f t="shared" si="41"/>
         <v>6.2700908179984189</v>
       </c>
@@ -7149,15 +7401,15 @@
         <f t="shared" si="50"/>
         <v>2.067530922493614</v>
       </c>
-      <c r="Q75" s="99">
+      <c r="Q75" s="93">
         <f t="shared" si="39"/>
         <v>1.4677829681721943E-58</v>
       </c>
-      <c r="R75" s="99">
+      <c r="R75" s="93">
         <f t="shared" si="40"/>
         <v>1.5972861416325029E-46</v>
       </c>
-      <c r="S75" s="99">
+      <c r="S75" s="93">
         <f t="shared" si="41"/>
         <v>9.9207172485326449</v>
       </c>
@@ -7219,15 +7471,15 @@
         <f t="shared" si="50"/>
         <v>1.7240304756353084</v>
       </c>
-      <c r="Q76" s="99">
+      <c r="Q76" s="93">
         <f t="shared" si="39"/>
         <v>1.0114951112410984E-12</v>
       </c>
-      <c r="R76" s="99">
+      <c r="R76" s="93">
         <f t="shared" si="40"/>
         <v>3.6124995395506624E-75</v>
       </c>
-      <c r="S76" s="99">
+      <c r="S76" s="93">
         <f t="shared" si="41"/>
         <v>2.9719324389887117E-2</v>
       </c>
@@ -7289,15 +7541,15 @@
         <f t="shared" si="50"/>
         <v>1.8322931068330832</v>
       </c>
-      <c r="Q77" s="99">
+      <c r="Q77" s="93">
         <f t="shared" si="39"/>
         <v>1.0623549189470979E-40</v>
       </c>
-      <c r="R77" s="99">
+      <c r="R77" s="93">
         <f t="shared" si="40"/>
         <v>3.2733148541576154E-59</v>
       </c>
-      <c r="S77" s="99">
+      <c r="S77" s="93">
         <f t="shared" si="41"/>
         <v>5.1825698387327455</v>
       </c>
@@ -7359,15 +7611,15 @@
         <f t="shared" si="50"/>
         <v>2.1132378081030838</v>
       </c>
-      <c r="Q78" s="99">
+      <c r="Q78" s="93">
         <f>$G78*$J78*$M78</f>
         <v>7.602266636421339E-69</v>
       </c>
-      <c r="R78" s="99">
+      <c r="R78" s="93">
         <f>$H78*$K78*$N78</f>
         <v>3.3131759236230609E-44</v>
       </c>
-      <c r="S78" s="99">
+      <c r="S78" s="93">
         <f>$I78*$L78*$O78</f>
         <v>9.2161874065077658</v>
       </c>
@@ -7429,15 +7681,15 @@
         <f t="shared" si="50"/>
         <v>2.0113250785399552</v>
       </c>
-      <c r="Q79" s="99">
+      <c r="Q79" s="93">
         <f t="shared" si="39"/>
         <v>6.042070112576324E-27</v>
       </c>
-      <c r="R79" s="99">
+      <c r="R79" s="93">
         <f t="shared" si="40"/>
         <v>7.0196711154527978E-67</v>
       </c>
-      <c r="S79" s="99">
+      <c r="S79" s="93">
         <f t="shared" si="41"/>
         <v>0.55354769459198294</v>
       </c>
@@ -7499,15 +7751,15 @@
         <f t="shared" si="50"/>
         <v>2.087401591364177</v>
       </c>
-      <c r="Q80" s="99">
+      <c r="Q80" s="93">
         <f t="shared" si="39"/>
         <v>4.3720816336398603E-18</v>
       </c>
-      <c r="R80" s="99">
+      <c r="R80" s="93">
         <f t="shared" si="40"/>
         <v>2.2072478214663217E-75</v>
       </c>
-      <c r="S80" s="99">
+      <c r="S80" s="93">
         <f t="shared" si="41"/>
         <v>8.3085862866635385E-2</v>
       </c>
@@ -7569,15 +7821,15 @@
         <f t="shared" si="50"/>
         <v>1.4315335097229367</v>
       </c>
-      <c r="Q81" s="99">
+      <c r="Q81" s="93">
         <f t="shared" si="39"/>
         <v>3.2921168189516128E-46</v>
       </c>
-      <c r="R81" s="99">
+      <c r="R81" s="93">
         <f t="shared" si="40"/>
         <v>8.5425201666029538E-50</v>
       </c>
-      <c r="S81" s="99">
+      <c r="S81" s="93">
         <f t="shared" si="41"/>
         <v>4.7138615077189554</v>
       </c>
@@ -7639,15 +7891,15 @@
         <f t="shared" si="50"/>
         <v>1.2215815360284532</v>
       </c>
-      <c r="Q82" s="99">
+      <c r="Q82" s="93">
         <f t="shared" si="39"/>
         <v>9.57011530058802E-61</v>
       </c>
-      <c r="R82" s="99">
+      <c r="R82" s="93">
         <f t="shared" si="40"/>
         <v>4.0574407811897443E-63</v>
       </c>
-      <c r="S82" s="99">
+      <c r="S82" s="93">
         <f t="shared" si="41"/>
         <v>1.99074576749135</v>
       </c>
@@ -7709,15 +7961,15 @@
         <f t="shared" si="50"/>
         <v>1.1858545671186964</v>
       </c>
-      <c r="Q83" s="99">
+      <c r="Q83" s="93">
         <f t="shared" si="39"/>
         <v>2.3103333762723359E-33</v>
       </c>
-      <c r="R83" s="99">
+      <c r="R83" s="93">
         <f t="shared" si="40"/>
         <v>2.9684744316018251E-64</v>
       </c>
-      <c r="S83" s="99">
+      <c r="S83" s="93">
         <f t="shared" si="41"/>
         <v>2.1814029197445559</v>
       </c>
@@ -7779,15 +8031,15 @@
         <f t="shared" si="50"/>
         <v>2.0952459476372813</v>
       </c>
-      <c r="Q84" s="99">
+      <c r="Q84" s="93">
         <f t="shared" si="39"/>
         <v>5.6120550471846883E-44</v>
       </c>
-      <c r="R84" s="99">
+      <c r="R84" s="93">
         <f t="shared" si="40"/>
         <v>3.670758050857543E-57</v>
       </c>
-      <c r="S84" s="99">
+      <c r="S84" s="93">
         <f t="shared" si="41"/>
         <v>6.4485637411172974</v>
       </c>
@@ -7849,15 +8101,15 @@
         <f t="shared" si="50"/>
         <v>5.4005292489818897E-2</v>
       </c>
-      <c r="Q85" s="101">
+      <c r="Q85" s="95">
         <f>$G85*$J85*$M85</f>
         <v>5.391342578152631E-32</v>
       </c>
-      <c r="R85" s="101">
+      <c r="R85" s="95">
         <f>$H85*$K85*$N85</f>
         <v>7.885954819231474E-82</v>
       </c>
-      <c r="S85" s="101">
+      <c r="S85" s="95">
         <f>$I85*$L85*$O85</f>
         <v>3.598389116333009E-2</v>
       </c>
@@ -7893,22 +8145,22 @@
       <c r="A88" s="31"/>
     </row>
     <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="94" t="s">
+      <c r="A89" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="96"/>
     </row>
     <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="94" t="s">
+      <c r="A90" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="94"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="94"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
     </row>
     <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
@@ -7933,7 +8185,7 @@
       <c r="A92" s="8">
         <v>1</v>
       </c>
-      <c r="B92" s="60">
+      <c r="B92" s="103">
         <v>5.0464372812485003E-2</v>
       </c>
       <c r="C92" s="48">
@@ -7949,7 +8201,7 @@
       <c r="A93" s="8">
         <v>2</v>
       </c>
-      <c r="B93" s="60">
+      <c r="B93" s="103">
         <v>6.4677331725749604E-2</v>
       </c>
       <c r="C93" s="48">
@@ -7965,7 +8217,7 @@
       <c r="A94" s="8">
         <v>3</v>
       </c>
-      <c r="B94" s="60">
+      <c r="B94" s="103">
         <v>5.4100570200954802E-2</v>
       </c>
       <c r="C94" s="48">
@@ -7981,7 +8233,7 @@
       <c r="A95" s="8">
         <v>4</v>
       </c>
-      <c r="B95" s="60">
+      <c r="B95" s="103">
         <v>4.0831657928526603E-2</v>
       </c>
       <c r="C95" s="48">
@@ -7997,7 +8249,7 @@
       <c r="A96" s="8">
         <v>5</v>
       </c>
-      <c r="B96" s="60">
+      <c r="B96" s="103">
         <v>6.1124407780591902E-2</v>
       </c>
       <c r="C96" s="48">
@@ -8013,7 +8265,7 @@
       <c r="A97" s="8">
         <v>6</v>
       </c>
-      <c r="B97" s="60">
+      <c r="B97" s="103">
         <v>3.7758892227597401E-2</v>
       </c>
       <c r="C97" s="48">
@@ -8029,7 +8281,7 @@
       <c r="A98" s="8">
         <v>7</v>
       </c>
-      <c r="B98" s="60">
+      <c r="B98" s="103">
         <v>4.6416858703748003E-2</v>
       </c>
       <c r="C98" s="48">
@@ -8045,7 +8297,7 @@
       <c r="A99" s="8">
         <v>8</v>
       </c>
-      <c r="B99" s="60">
+      <c r="B99" s="103">
         <v>5.3361801218952502E-2</v>
       </c>
       <c r="C99" s="48">
@@ -8061,7 +8313,7 @@
       <c r="A100" s="8">
         <v>9</v>
       </c>
-      <c r="B100" s="60">
+      <c r="B100" s="103">
         <v>4.8104122188616497E-2</v>
       </c>
       <c r="C100" s="48">
@@ -8077,7 +8329,7 @@
       <c r="A101" s="8">
         <v>10</v>
       </c>
-      <c r="B101" s="60">
+      <c r="B101" s="103">
         <v>4.02954749954696E-2</v>
       </c>
       <c r="C101" s="48">
@@ -8093,7 +8345,7 @@
       <c r="A102" s="8">
         <v>11</v>
       </c>
-      <c r="B102" s="60">
+      <c r="B102" s="103">
         <v>4.6943005833468401E-2</v>
       </c>
       <c r="C102" s="48">
@@ -8109,7 +8361,7 @@
       <c r="A103" s="8">
         <v>12</v>
       </c>
-      <c r="B103" s="60">
+      <c r="B103" s="103">
         <v>3.6126638796706398E-2</v>
       </c>
       <c r="C103" s="48">
@@ -8125,7 +8377,7 @@
       <c r="A104" s="8">
         <v>13</v>
       </c>
-      <c r="B104" s="60">
+      <c r="B104" s="103">
         <v>4.2344456354622598E-2</v>
       </c>
       <c r="C104" s="48">
@@ -8141,7 +8393,7 @@
       <c r="A105" s="8">
         <v>14</v>
       </c>
-      <c r="B105" s="60">
+      <c r="B105" s="103">
         <v>5.0253896341658902E-2</v>
       </c>
       <c r="C105" s="48">
@@ -8152,6 +8404,7 @@
         <f t="shared" si="53"/>
         <v>4.8246316024635189E-6</v>
       </c>
+      <c r="F105"/>
     </row>
     <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
@@ -8192,11 +8445,11 @@
       <c r="T107" s="25"/>
     </row>
     <row r="108" spans="1:20" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="91" t="s">
+      <c r="A108" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="91"/>
-      <c r="C108" s="91"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="98"/>
       <c r="D108" s="3">
         <f>B106/COUNTA(B92:B105)</f>
         <v>4.8057391936367731E-2</v>
@@ -8217,11 +8470,11 @@
       <c r="T108" s="25"/>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="93" t="s">
+      <c r="A109" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="93"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="97"/>
       <c r="D109" s="3">
         <f>SQRT(D106/(COUNTA(D92:D105)-1))</f>
         <v>8.4109718967500802E-3</v>
@@ -8246,24 +8499,24 @@
       <c r="P111" s="42"/>
     </row>
     <row r="112" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="94" t="s">
+      <c r="A112" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="94"/>
-      <c r="C112" s="94"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="42"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112"/>
       <c r="P112" s="42"/>
     </row>
     <row r="113" spans="1:20" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="94" t="s">
+      <c r="A113" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="94"/>
-      <c r="C113" s="94"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="94"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
       <c r="F113" s="42"/>
       <c r="P113" s="42"/>
     </row>
@@ -8819,22 +9072,22 @@
       <c r="A144" s="31"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="91" t="s">
+      <c r="A145" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="91"/>
-      <c r="C145" s="91"/>
+      <c r="B145" s="98"/>
+      <c r="C145" s="98"/>
       <c r="D145" s="3">
         <f>B143/COUNTA(B115:B142)</f>
         <v>0.26558931817732206</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="93" t="s">
+      <c r="A146" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="93"/>
-      <c r="C146" s="93"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="97"/>
       <c r="D146" s="3">
         <f>SQRT(D143/(COUNTA(D115:D142)-1))</f>
         <v>1.7082064988804199E-2</v>
@@ -8853,21 +9106,21 @@
       <c r="D148" s="52"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="94" t="s">
+      <c r="A149" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B149" s="94"/>
-      <c r="C149" s="94"/>
-      <c r="D149" s="94"/>
+      <c r="B149" s="96"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="96"/>
       <c r="E149" s="58"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="95" t="s">
+      <c r="A150" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="95"/>
-      <c r="C150" s="95"/>
-      <c r="D150" s="95"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="100"/>
+      <c r="D150" s="100"/>
       <c r="E150" s="58"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9526,11 +9779,11 @@
       <c r="A192" s="31"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="91" t="s">
+      <c r="A193" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B193" s="91"/>
-      <c r="C193" s="91"/>
+      <c r="B193" s="98"/>
+      <c r="C193" s="98"/>
       <c r="D193" s="3">
         <f>B191/COUNTA(B152:B190)</f>
         <v>9.3926980869155019E-2</v>
@@ -9554,21 +9807,21 @@
       <c r="A196" s="31"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="94" t="s">
+      <c r="A197" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B197" s="94"/>
-      <c r="C197" s="94"/>
-      <c r="D197" s="94"/>
+      <c r="B197" s="96"/>
+      <c r="C197" s="96"/>
+      <c r="D197" s="96"/>
       <c r="E197" s="31"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="95" t="s">
+      <c r="A198" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="95"/>
-      <c r="C198" s="95"/>
-      <c r="D198" s="95"/>
+      <c r="B198" s="100"/>
+      <c r="C198" s="100"/>
+      <c r="D198" s="100"/>
       <c r="E198" s="31"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9829,22 +10082,22 @@
       <c r="A215" s="31"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="91" t="s">
+      <c r="A216" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B216" s="91"/>
-      <c r="C216" s="91"/>
+      <c r="B216" s="98"/>
+      <c r="C216" s="98"/>
       <c r="D216" s="3">
         <f>B214/COUNTA(B200:B213)</f>
         <v>0.72817812105037716</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="93" t="s">
+      <c r="A217" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B217" s="93"/>
-      <c r="C217" s="93"/>
+      <c r="B217" s="97"/>
+      <c r="C217" s="97"/>
       <c r="D217" s="3">
         <f>SQRT(D214/(COUNTA(D200:D213)-1))</f>
         <v>1.5217938135726047E-2</v>
@@ -9865,21 +10118,21 @@
       <c r="E219" s="57"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="94" t="s">
+      <c r="A220" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B220" s="94"/>
-      <c r="C220" s="94"/>
-      <c r="D220" s="94"/>
+      <c r="B220" s="96"/>
+      <c r="C220" s="96"/>
+      <c r="D220" s="96"/>
       <c r="E220" s="31"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="95" t="s">
+      <c r="A221" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B221" s="95"/>
-      <c r="C221" s="95"/>
-      <c r="D221" s="95"/>
+      <c r="B221" s="100"/>
+      <c r="C221" s="100"/>
+      <c r="D221" s="100"/>
       <c r="E221" s="31"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10362,22 +10615,22 @@
       <c r="A252" s="31"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="91" t="s">
+      <c r="A253" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B253" s="91"/>
-      <c r="C253" s="91"/>
+      <c r="B253" s="98"/>
+      <c r="C253" s="98"/>
       <c r="D253" s="3">
         <f>B251/COUNTA(B223:B250)</f>
         <v>0.56015274443130136</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="92" t="s">
+      <c r="A254" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B254" s="92"/>
-      <c r="C254" s="92"/>
+      <c r="B254" s="101"/>
+      <c r="C254" s="101"/>
       <c r="D254" s="3">
         <f>SQRT(D251/(COUNTA(D223:D250)-1))</f>
         <v>2.3521857339286075E-2</v>
@@ -10398,21 +10651,21 @@
       <c r="E256" s="39"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="94" t="s">
+      <c r="A257" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B257" s="94"/>
-      <c r="C257" s="94"/>
-      <c r="D257" s="94"/>
+      <c r="B257" s="96"/>
+      <c r="C257" s="96"/>
+      <c r="D257" s="96"/>
       <c r="E257" s="31"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="95" t="s">
+      <c r="A258" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="95"/>
-      <c r="C258" s="95"/>
-      <c r="D258" s="95"/>
+      <c r="B258" s="100"/>
+      <c r="C258" s="100"/>
+      <c r="D258" s="100"/>
       <c r="E258" s="31"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11071,22 +11324,22 @@
       <c r="A300" s="31"/>
     </row>
     <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="91" t="s">
+      <c r="A301" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B301" s="91"/>
-      <c r="C301" s="91"/>
+      <c r="B301" s="98"/>
+      <c r="C301" s="98"/>
       <c r="D301" s="3">
         <f>B299/COUNTA(B260:B298)</f>
         <v>0.58263431456605141</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="92" t="s">
+      <c r="A302" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B302" s="92"/>
-      <c r="C302" s="92"/>
+      <c r="B302" s="101"/>
+      <c r="C302" s="101"/>
       <c r="D302" s="3">
         <f>SQRT(D299/(COUNTA(D260:D298)-1))</f>
         <v>3.9045800813578585E-2</v>
@@ -11105,21 +11358,21 @@
       <c r="D304" s="52"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="94" t="s">
+      <c r="A305" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B305" s="94"/>
-      <c r="C305" s="94"/>
-      <c r="D305" s="94"/>
+      <c r="B305" s="96"/>
+      <c r="C305" s="96"/>
+      <c r="D305" s="96"/>
       <c r="E305" s="31"/>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="95" t="s">
+      <c r="A306" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B306" s="95"/>
-      <c r="C306" s="95"/>
-      <c r="D306" s="95"/>
+      <c r="B306" s="100"/>
+      <c r="C306" s="100"/>
+      <c r="D306" s="100"/>
       <c r="E306" s="31"/>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11379,22 +11632,22 @@
       <c r="A323" s="31"/>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="91" t="s">
+      <c r="A324" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B324" s="91"/>
-      <c r="C324" s="91"/>
+      <c r="B324" s="98"/>
+      <c r="C324" s="98"/>
       <c r="D324" s="3">
         <f>B322/COUNTA(B308:B321)</f>
         <v>0.72002540707026452</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="92" t="s">
+      <c r="A325" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B325" s="92"/>
-      <c r="C325" s="92"/>
+      <c r="B325" s="101"/>
+      <c r="C325" s="101"/>
       <c r="D325" s="3">
         <f>SQRT(D322/(COUNTA(D308:D321)-1))</f>
         <v>1.6916130288624074E-2</v>
@@ -11415,21 +11668,21 @@
       <c r="E327" s="39"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="94" t="s">
+      <c r="A328" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B328" s="94"/>
-      <c r="C328" s="94"/>
-      <c r="D328" s="94"/>
+      <c r="B328" s="96"/>
+      <c r="C328" s="96"/>
+      <c r="D328" s="96"/>
       <c r="E328" s="31"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="95" t="s">
+      <c r="A329" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B329" s="95"/>
-      <c r="C329" s="95"/>
-      <c r="D329" s="95"/>
+      <c r="B329" s="100"/>
+      <c r="C329" s="100"/>
+      <c r="D329" s="100"/>
       <c r="E329" s="31"/>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11912,22 +12165,22 @@
       <c r="A360" s="31"/>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="91" t="s">
+      <c r="A361" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B361" s="91"/>
-      <c r="C361" s="91"/>
+      <c r="B361" s="98"/>
+      <c r="C361" s="98"/>
       <c r="D361" s="3">
         <f>B359/COUNTA(B331:B358)</f>
         <v>0.58257234767982247</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="93" t="s">
+      <c r="A362" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B362" s="93"/>
-      <c r="C362" s="93"/>
+      <c r="B362" s="97"/>
+      <c r="C362" s="97"/>
       <c r="D362" s="3">
         <f>SQRT(D359/(COUNTA(D331:D358)-1))</f>
         <v>2.1791654104027443E-2</v>
@@ -11946,21 +12199,21 @@
       <c r="D364" s="52"/>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="94" t="s">
+      <c r="A365" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B365" s="94"/>
-      <c r="C365" s="94"/>
-      <c r="D365" s="94"/>
+      <c r="B365" s="96"/>
+      <c r="C365" s="96"/>
+      <c r="D365" s="96"/>
       <c r="E365" s="31"/>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="95" t="s">
+      <c r="A366" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B366" s="95"/>
-      <c r="C366" s="95"/>
-      <c r="D366" s="95"/>
+      <c r="B366" s="100"/>
+      <c r="C366" s="100"/>
+      <c r="D366" s="100"/>
       <c r="E366" s="31"/>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12619,22 +12872,22 @@
       <c r="A408" s="31"/>
     </row>
     <row r="409" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="91" t="s">
+      <c r="A409" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B409" s="91"/>
-      <c r="C409" s="91"/>
+      <c r="B409" s="98"/>
+      <c r="C409" s="98"/>
       <c r="D409" s="3">
         <f>B407/COUNTA(B368:B406)</f>
         <v>0.64929857659352486</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="92" t="s">
+      <c r="A410" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B410" s="92"/>
-      <c r="C410" s="92"/>
+      <c r="B410" s="101"/>
+      <c r="C410" s="101"/>
       <c r="D410" s="3">
         <f>SQRT(D407/(COUNTA(D368:D406)-1))</f>
         <v>3.5606776378189632E-2</v>
@@ -12661,6 +12914,33 @@
   </sheetData>
   <autoFilter ref="A4:E85"/>
   <mergeCells count="36">
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A328:D328"/>
+    <mergeCell ref="A329:D329"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A366:D366"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A193:C193"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A146:C146"/>
     <mergeCell ref="A145:C145"/>
@@ -12670,33 +12950,6 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A328:D328"/>
-    <mergeCell ref="A329:D329"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A366:D366"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
